--- a/dataanalysis/data/predictions/1400/09081453_1455.xlsx
+++ b/dataanalysis/data/predictions/1400/09081453_1455.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="113">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-08</t>
   </si>
   <si>
@@ -350,12 +353,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -713,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH49"/>
+  <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,19 +819,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300014</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-4.87</v>
@@ -852,7 +852,7 @@
         <v>1356208.03</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -893,8 +893,23 @@
       <c r="W2">
         <v>-0.67</v>
       </c>
+      <c r="X2">
+        <v>-3.63</v>
+      </c>
+      <c r="Y2">
+        <v>74.88</v>
+      </c>
+      <c r="Z2">
+        <v>0.92</v>
+      </c>
       <c r="AC2" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -902,22 +917,25 @@
       <c r="AG2">
         <v>6.763560771942139</v>
       </c>
-      <c r="AH2" t="s">
-        <v>112</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300035</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-4.17</v>
@@ -935,7 +953,7 @@
         <v>272308.76</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -976,8 +994,23 @@
       <c r="W3">
         <v>-1.16</v>
       </c>
+      <c r="X3">
+        <v>-5.66</v>
+      </c>
+      <c r="Y3">
+        <v>23.26</v>
+      </c>
+      <c r="Z3">
+        <v>-0.85</v>
+      </c>
       <c r="AC3" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -985,22 +1018,25 @@
       <c r="AG3">
         <v>3.19507884979248</v>
       </c>
-      <c r="AH3" t="s">
-        <v>112</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300092</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-0.45</v>
@@ -1018,7 +1054,7 @@
         <v>139414.49</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1059,8 +1095,23 @@
       <c r="W4">
         <v>2.86</v>
       </c>
+      <c r="X4">
+        <v>3.25</v>
+      </c>
+      <c r="Y4">
+        <v>21.34</v>
+      </c>
+      <c r="Z4">
+        <v>7.24</v>
+      </c>
       <c r="AC4" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1068,22 +1119,25 @@
       <c r="AG4">
         <v>10.47520065307617</v>
       </c>
-      <c r="AH4" t="s">
-        <v>112</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300124</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>11.78</v>
@@ -1101,7 +1155,7 @@
         <v>929279.6899999999</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1142,8 +1196,23 @@
       <c r="W5">
         <v>0.23</v>
       </c>
+      <c r="X5">
+        <v>-3.82</v>
+      </c>
+      <c r="Y5">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="Z5">
+        <v>-1.33</v>
+      </c>
       <c r="AC5" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1151,22 +1220,25 @@
       <c r="AG5">
         <v>-3.542035818099976</v>
       </c>
-      <c r="AH5" t="s">
-        <v>112</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300207</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>2.59</v>
@@ -1184,7 +1256,7 @@
         <v>800351.95</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1225,8 +1297,23 @@
       <c r="W6">
         <v>-0.83</v>
       </c>
+      <c r="X6">
+        <v>-5.06</v>
+      </c>
+      <c r="Y6">
+        <v>29.89</v>
+      </c>
+      <c r="Z6">
+        <v>-0.9</v>
+      </c>
       <c r="AC6" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1234,22 +1321,25 @@
       <c r="AG6">
         <v>7.44066047668457</v>
       </c>
-      <c r="AH6" t="s">
-        <v>112</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300237</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>3.12</v>
@@ -1267,7 +1357,7 @@
         <v>58152.77</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1308,8 +1398,23 @@
       <c r="W7">
         <v>-0.12</v>
       </c>
+      <c r="X7">
+        <v>3.02</v>
+      </c>
+      <c r="Y7">
+        <v>3.53</v>
+      </c>
+      <c r="Z7">
+        <v>6.97</v>
+      </c>
       <c r="AC7" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1317,22 +1422,25 @@
       <c r="AG7">
         <v>-7.251152038574219</v>
       </c>
-      <c r="AH7" t="s">
-        <v>112</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300274</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>0.72</v>
@@ -1350,7 +1458,7 @@
         <v>2554253.11</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1391,8 +1499,23 @@
       <c r="W8">
         <v>-0.24</v>
       </c>
+      <c r="X8">
+        <v>-5.18</v>
+      </c>
+      <c r="Y8">
+        <v>135.34</v>
+      </c>
+      <c r="Z8">
+        <v>-0.72</v>
+      </c>
       <c r="AC8" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1400,22 +1523,25 @@
       <c r="AG8">
         <v>101.4217987060547</v>
       </c>
-      <c r="AH8" t="s">
-        <v>112</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300328</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>7.42</v>
@@ -1433,7 +1559,7 @@
         <v>325447.27</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K9">
         <v>15</v>
@@ -1474,8 +1600,23 @@
       <c r="W9">
         <v>0.96</v>
       </c>
+      <c r="X9">
+        <v>-12.2</v>
+      </c>
+      <c r="Y9">
+        <v>20.11</v>
+      </c>
+      <c r="Z9">
+        <v>-2.8</v>
+      </c>
       <c r="AC9" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1483,22 +1624,25 @@
       <c r="AG9">
         <v>3.463279247283936</v>
       </c>
-      <c r="AH9" t="s">
-        <v>112</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300331</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-4.72</v>
@@ -1516,7 +1660,7 @@
         <v>206853.41</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1557,8 +1701,23 @@
       <c r="W10">
         <v>-2.07</v>
       </c>
+      <c r="X10">
+        <v>-5.26</v>
+      </c>
+      <c r="Y10">
+        <v>31.96</v>
+      </c>
+      <c r="Z10">
+        <v>-0.37</v>
+      </c>
       <c r="AC10" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1566,22 +1725,25 @@
       <c r="AG10">
         <v>2.080177783966064</v>
       </c>
-      <c r="AH10" t="s">
-        <v>112</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300409</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0.08</v>
@@ -1599,7 +1761,7 @@
         <v>351070</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11">
         <v>16</v>
@@ -1640,8 +1802,23 @@
       <c r="W11">
         <v>0.46</v>
       </c>
+      <c r="X11">
+        <v>-1.85</v>
+      </c>
+      <c r="Y11">
+        <v>24.49</v>
+      </c>
+      <c r="Z11">
+        <v>0.53</v>
+      </c>
       <c r="AC11" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -1649,22 +1826,25 @@
       <c r="AG11">
         <v>3.862013578414917</v>
       </c>
-      <c r="AH11" t="s">
-        <v>113</v>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300410</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-2.87</v>
@@ -1682,7 +1862,7 @@
         <v>88733.24000000001</v>
       </c>
       <c r="J12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1723,8 +1903,23 @@
       <c r="W12">
         <v>0.11</v>
       </c>
+      <c r="X12">
+        <v>-3.84</v>
+      </c>
+      <c r="Y12">
+        <v>10.88</v>
+      </c>
+      <c r="Z12">
+        <v>0.55</v>
+      </c>
       <c r="AC12" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1732,22 +1927,25 @@
       <c r="AG12">
         <v>5.818997383117676</v>
       </c>
-      <c r="AH12" t="s">
-        <v>112</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300433</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>4.17</v>
@@ -1765,7 +1963,7 @@
         <v>537673.52</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1806,8 +2004,23 @@
       <c r="W13">
         <v>0.03</v>
       </c>
+      <c r="X13">
+        <v>-9.609999999999999</v>
+      </c>
+      <c r="Y13">
+        <v>32</v>
+      </c>
+      <c r="Z13">
+        <v>-2.17</v>
+      </c>
       <c r="AC13" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1815,22 +2028,25 @@
       <c r="AG13">
         <v>14.55033683776855</v>
       </c>
-      <c r="AH13" t="s">
-        <v>112</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300450</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>5.78</v>
@@ -1848,7 +2064,7 @@
         <v>1971972.92</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14">
         <v>7</v>
@@ -1889,8 +2105,23 @@
       <c r="W14">
         <v>-1.78</v>
       </c>
+      <c r="X14">
+        <v>-2.32</v>
+      </c>
+      <c r="Y14">
+        <v>57.83</v>
+      </c>
+      <c r="Z14">
+        <v>1.62</v>
+      </c>
       <c r="AC14" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1898,22 +2129,25 @@
       <c r="AG14">
         <v>42.13319396972656</v>
       </c>
-      <c r="AH14" t="s">
-        <v>112</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300457</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-2.92</v>
@@ -1931,7 +2165,7 @@
         <v>256047.1</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K15">
         <v>5</v>
@@ -1972,8 +2206,23 @@
       <c r="W15">
         <v>-0.96</v>
       </c>
+      <c r="X15">
+        <v>-4.7</v>
+      </c>
+      <c r="Y15">
+        <v>29.2</v>
+      </c>
+      <c r="Z15">
+        <v>-1.38</v>
+      </c>
       <c r="AC15" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -1981,22 +2230,25 @@
       <c r="AG15">
         <v>4.476787567138672</v>
       </c>
-      <c r="AH15" t="s">
-        <v>112</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300465</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>2.51</v>
@@ -2014,7 +2266,7 @@
         <v>157810.52</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16">
         <v>8</v>
@@ -2055,8 +2307,23 @@
       <c r="W16">
         <v>1.27</v>
       </c>
+      <c r="X16">
+        <v>-1.66</v>
+      </c>
+      <c r="Y16">
+        <v>26.62</v>
+      </c>
+      <c r="Z16">
+        <v>3.3</v>
+      </c>
       <c r="AC16" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -2064,22 +2331,25 @@
       <c r="AG16">
         <v>6.291278839111328</v>
       </c>
-      <c r="AH16" t="s">
-        <v>113</v>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300469</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>3.3</v>
@@ -2097,7 +2367,7 @@
         <v>124774.96</v>
       </c>
       <c r="J17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K17">
         <v>13</v>
@@ -2138,8 +2408,23 @@
       <c r="W17">
         <v>0.46</v>
       </c>
+      <c r="X17">
+        <v>-4.84</v>
+      </c>
+      <c r="Y17">
+        <v>70.78</v>
+      </c>
+      <c r="Z17">
+        <v>0.01</v>
+      </c>
       <c r="AC17" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -2147,22 +2432,25 @@
       <c r="AG17">
         <v>60.11853408813477</v>
       </c>
-      <c r="AH17" t="s">
-        <v>113</v>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300475</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>17.07</v>
@@ -2180,7 +2468,7 @@
         <v>261178.83</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -2221,8 +2509,23 @@
       <c r="W18">
         <v>1.05</v>
       </c>
+      <c r="X18">
+        <v>6.09</v>
+      </c>
+      <c r="Y18">
+        <v>55.43</v>
+      </c>
+      <c r="Z18">
+        <v>10.13</v>
+      </c>
       <c r="AC18" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2230,22 +2533,25 @@
       <c r="AG18">
         <v>-1.528708815574646</v>
       </c>
-      <c r="AH18" t="s">
-        <v>112</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300491</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>7.57</v>
@@ -2263,7 +2569,7 @@
         <v>98355.58</v>
       </c>
       <c r="J19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19">
         <v>12</v>
@@ -2304,8 +2610,23 @@
       <c r="W19">
         <v>0.38</v>
       </c>
+      <c r="X19">
+        <v>-5.35</v>
+      </c>
+      <c r="Y19">
+        <v>40.6</v>
+      </c>
+      <c r="Z19">
+        <v>1.35</v>
+      </c>
       <c r="AC19" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2313,22 +2634,25 @@
       <c r="AG19">
         <v>5.865265369415283</v>
       </c>
-      <c r="AH19" t="s">
-        <v>112</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300539</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>19.99</v>
@@ -2346,7 +2670,7 @@
         <v>82545.75</v>
       </c>
       <c r="J20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -2387,8 +2711,23 @@
       <c r="W20">
         <v>2.23</v>
       </c>
+      <c r="X20">
+        <v>-1.47</v>
+      </c>
+      <c r="Y20">
+        <v>40.6</v>
+      </c>
+      <c r="Z20">
+        <v>3.1</v>
+      </c>
       <c r="AC20" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2396,22 +2735,25 @@
       <c r="AG20">
         <v>8.55618953704834</v>
       </c>
-      <c r="AH20" t="s">
-        <v>112</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300584</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>6.57</v>
@@ -2429,7 +2771,7 @@
         <v>145058.25</v>
       </c>
       <c r="J21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K21">
         <v>20</v>
@@ -2470,8 +2812,23 @@
       <c r="W21">
         <v>0.48</v>
       </c>
+      <c r="X21">
+        <v>-5.7</v>
+      </c>
+      <c r="Y21">
+        <v>80.87</v>
+      </c>
+      <c r="Z21">
+        <v>3.67</v>
+      </c>
       <c r="AC21" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2479,22 +2836,25 @@
       <c r="AG21">
         <v>6.036610126495361</v>
       </c>
-      <c r="AH21" t="s">
-        <v>112</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300618</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>9.130000000000001</v>
@@ -2512,7 +2872,7 @@
         <v>259942.99</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2553,8 +2913,23 @@
       <c r="W22">
         <v>-0.03</v>
       </c>
+      <c r="X22">
+        <v>-4.8</v>
+      </c>
+      <c r="Y22">
+        <v>51.73</v>
+      </c>
+      <c r="Z22">
+        <v>-0.52</v>
+      </c>
       <c r="AC22" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2562,22 +2937,25 @@
       <c r="AG22">
         <v>-4.053039073944092</v>
       </c>
-      <c r="AH22" t="s">
-        <v>112</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300763</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>1.97</v>
@@ -2595,7 +2973,7 @@
         <v>572807.3199999999</v>
       </c>
       <c r="J23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2636,8 +3014,23 @@
       <c r="W23">
         <v>-0.4</v>
       </c>
+      <c r="X23">
+        <v>-2.86</v>
+      </c>
+      <c r="Y23">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="Z23">
+        <v>1.54</v>
+      </c>
       <c r="AC23" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2645,22 +3038,25 @@
       <c r="AG23">
         <v>5.990001201629639</v>
       </c>
-      <c r="AH23" t="s">
-        <v>112</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300772</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-3.14</v>
@@ -2678,7 +3074,7 @@
         <v>135923.67</v>
       </c>
       <c r="J24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K24">
         <v>11</v>
@@ -2719,8 +3115,23 @@
       <c r="W24">
         <v>-0.98</v>
       </c>
+      <c r="X24">
+        <v>-3.12</v>
+      </c>
+      <c r="Y24">
+        <v>18.76</v>
+      </c>
+      <c r="Z24">
+        <v>1.52</v>
+      </c>
       <c r="AC24" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2728,22 +3139,25 @@
       <c r="AG24">
         <v>1.721213459968567</v>
       </c>
-      <c r="AH24" t="s">
-        <v>112</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300827</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-0.59</v>
@@ -2761,7 +3175,7 @@
         <v>333487.95</v>
       </c>
       <c r="J25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2802,8 +3216,23 @@
       <c r="W25">
         <v>-0.5</v>
       </c>
+      <c r="X25">
+        <v>3.38</v>
+      </c>
+      <c r="Y25">
+        <v>38.33</v>
+      </c>
+      <c r="Z25">
+        <v>8.74</v>
+      </c>
       <c r="AC25" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2811,22 +3240,25 @@
       <c r="AG25">
         <v>1.125830769538879</v>
       </c>
-      <c r="AH25" t="s">
-        <v>112</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300857</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>8.26</v>
@@ -2844,7 +3276,7 @@
         <v>321732.63</v>
       </c>
       <c r="J26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K26">
         <v>12</v>
@@ -2885,8 +3317,23 @@
       <c r="W26">
         <v>0.54</v>
       </c>
+      <c r="X26">
+        <v>2.1</v>
+      </c>
+      <c r="Y26">
+        <v>116</v>
+      </c>
+      <c r="Z26">
+        <v>3.03</v>
+      </c>
       <c r="AC26" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2894,22 +3341,25 @@
       <c r="AG26">
         <v>7.780180931091309</v>
       </c>
-      <c r="AH26" t="s">
-        <v>112</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300953</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>3.02</v>
@@ -2927,7 +3377,7 @@
         <v>194466.48</v>
       </c>
       <c r="J27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K27">
         <v>9</v>
@@ -2968,8 +3418,23 @@
       <c r="W27">
         <v>0.68</v>
       </c>
+      <c r="X27">
+        <v>0.12</v>
+      </c>
+      <c r="Y27">
+        <v>162.47</v>
+      </c>
+      <c r="Z27">
+        <v>4.07</v>
+      </c>
       <c r="AC27" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -2977,22 +3442,25 @@
       <c r="AG27">
         <v>12.29249954223633</v>
       </c>
-      <c r="AH27" t="s">
-        <v>112</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300997</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>2.08</v>
@@ -3010,7 +3478,7 @@
         <v>51834.84</v>
       </c>
       <c r="J28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3051,8 +3519,23 @@
       <c r="W28">
         <v>0.15</v>
       </c>
+      <c r="X28">
+        <v>-0.54</v>
+      </c>
+      <c r="Y28">
+        <v>21.66</v>
+      </c>
+      <c r="Z28">
+        <v>7.65</v>
+      </c>
       <c r="AC28" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3060,22 +3543,25 @@
       <c r="AG28">
         <v>5.609873294830322</v>
       </c>
-      <c r="AH28" t="s">
-        <v>112</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301076</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>20</v>
@@ -3093,7 +3579,7 @@
         <v>166401.97</v>
       </c>
       <c r="J29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3134,8 +3620,23 @@
       <c r="W29">
         <v>3.55</v>
       </c>
+      <c r="X29">
+        <v>1.75</v>
+      </c>
+      <c r="Y29">
+        <v>65.55</v>
+      </c>
+      <c r="Z29">
+        <v>7.94</v>
+      </c>
       <c r="AC29" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3143,22 +3644,25 @@
       <c r="AG29">
         <v>8.315154075622559</v>
       </c>
-      <c r="AH29" t="s">
-        <v>112</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301150</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>10.63</v>
@@ -3176,7 +3680,7 @@
         <v>102540.95</v>
       </c>
       <c r="J30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -3217,8 +3721,23 @@
       <c r="W30">
         <v>2.24</v>
       </c>
+      <c r="X30">
+        <v>3.97</v>
+      </c>
+      <c r="Y30">
+        <v>39.7</v>
+      </c>
+      <c r="Z30">
+        <v>10.22</v>
+      </c>
       <c r="AC30" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3226,22 +3745,25 @@
       <c r="AG30">
         <v>-0.8601270914077759</v>
       </c>
-      <c r="AH30" t="s">
-        <v>112</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301219</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>2.06</v>
@@ -3259,7 +3781,7 @@
         <v>118936.17</v>
       </c>
       <c r="J31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K31">
         <v>14</v>
@@ -3300,8 +3822,23 @@
       <c r="W31">
         <v>0.6899999999999999</v>
       </c>
+      <c r="X31">
+        <v>-3.44</v>
+      </c>
+      <c r="Y31">
+        <v>73.2</v>
+      </c>
+      <c r="Z31">
+        <v>0.55</v>
+      </c>
       <c r="AC31" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3309,22 +3846,25 @@
       <c r="AG31">
         <v>-0.7594176530838013</v>
       </c>
-      <c r="AH31" t="s">
-        <v>112</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301312</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-0.74</v>
@@ -3342,7 +3882,7 @@
         <v>55695.62</v>
       </c>
       <c r="J32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K32">
         <v>21</v>
@@ -3383,8 +3923,23 @@
       <c r="W32">
         <v>-0.95</v>
       </c>
+      <c r="X32">
+        <v>-7.11</v>
+      </c>
+      <c r="Y32">
+        <v>62</v>
+      </c>
+      <c r="Z32">
+        <v>-1.51</v>
+      </c>
       <c r="AC32" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3392,22 +3947,25 @@
       <c r="AG32">
         <v>-0.864797055721283</v>
       </c>
-      <c r="AH32" t="s">
-        <v>112</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301413</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>8.49</v>
@@ -3425,7 +3983,7 @@
         <v>120362.73</v>
       </c>
       <c r="J33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K33">
         <v>12</v>
@@ -3466,8 +4024,23 @@
       <c r="W33">
         <v>0.47</v>
       </c>
+      <c r="X33">
+        <v>-0.9</v>
+      </c>
+      <c r="Y33">
+        <v>150</v>
+      </c>
+      <c r="Z33">
+        <v>3.96</v>
+      </c>
       <c r="AC33" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3475,22 +4048,25 @@
       <c r="AG33">
         <v>2.816046237945557</v>
       </c>
-      <c r="AH33" t="s">
-        <v>112</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301488</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-4.77</v>
@@ -3508,7 +4084,7 @@
         <v>117723.53</v>
       </c>
       <c r="J34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K34">
         <v>9</v>
@@ -3549,8 +4125,23 @@
       <c r="W34">
         <v>1.36</v>
       </c>
+      <c r="X34">
+        <v>2.81</v>
+      </c>
+      <c r="Y34">
+        <v>152.9</v>
+      </c>
+      <c r="Z34">
+        <v>8.52</v>
+      </c>
       <c r="AC34" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3558,22 +4149,25 @@
       <c r="AG34">
         <v>10.09826278686523</v>
       </c>
-      <c r="AH34" t="s">
-        <v>112</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301617</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>6.27</v>
@@ -3591,7 +4185,7 @@
         <v>76058.21000000001</v>
       </c>
       <c r="J35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K35">
         <v>12</v>
@@ -3632,8 +4226,23 @@
       <c r="W35">
         <v>1.82</v>
       </c>
+      <c r="X35">
+        <v>15.24</v>
+      </c>
+      <c r="Y35">
+        <v>88.19</v>
+      </c>
+      <c r="Z35">
+        <v>20.78</v>
+      </c>
       <c r="AC35" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3641,22 +4250,25 @@
       <c r="AG35">
         <v>-1.48252809047699</v>
       </c>
-      <c r="AH35" t="s">
-        <v>112</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>688006</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>2.05</v>
@@ -3674,7 +4286,7 @@
         <v>213853.88</v>
       </c>
       <c r="J36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36">
         <v>6</v>
@@ -3715,8 +4327,23 @@
       <c r="W36">
         <v>0.03</v>
       </c>
+      <c r="X36">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="Y36">
+        <v>40.5</v>
+      </c>
+      <c r="Z36">
+        <v>2.97</v>
+      </c>
       <c r="AC36" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3724,22 +4351,25 @@
       <c r="AG36">
         <v>-1.95973813533783</v>
       </c>
-      <c r="AH36" t="s">
-        <v>112</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688066</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>8.85</v>
@@ -3757,7 +4387,7 @@
         <v>213585.54</v>
       </c>
       <c r="J37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3798,8 +4428,23 @@
       <c r="W37">
         <v>0.33</v>
       </c>
+      <c r="X37">
+        <v>-9.529999999999999</v>
+      </c>
+      <c r="Y37">
+        <v>38.21</v>
+      </c>
+      <c r="Z37">
+        <v>-3.24</v>
+      </c>
       <c r="AC37" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3807,22 +4452,25 @@
       <c r="AG37">
         <v>2.936811923980713</v>
       </c>
-      <c r="AH37" t="s">
-        <v>112</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688116</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>0.89</v>
@@ -3840,7 +4488,7 @@
         <v>145284.89</v>
       </c>
       <c r="J38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -3881,8 +4529,23 @@
       <c r="W38">
         <v>0.35</v>
       </c>
+      <c r="X38">
+        <v>1.3</v>
+      </c>
+      <c r="Y38">
+        <v>59.7</v>
+      </c>
+      <c r="Z38">
+        <v>7.68</v>
+      </c>
       <c r="AC38" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3890,22 +4553,25 @@
       <c r="AG38">
         <v>2.210839033126831</v>
       </c>
-      <c r="AH38" t="s">
-        <v>112</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688141</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-0.65</v>
@@ -3923,7 +4589,7 @@
         <v>125860.72</v>
       </c>
       <c r="J39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K39">
         <v>4</v>
@@ -3964,8 +4630,23 @@
       <c r="W39">
         <v>0.99</v>
       </c>
+      <c r="X39">
+        <v>-2.3</v>
+      </c>
+      <c r="Y39">
+        <v>47.2</v>
+      </c>
+      <c r="Z39">
+        <v>0.36</v>
+      </c>
       <c r="AC39" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -3973,22 +4654,25 @@
       <c r="AG39">
         <v>6.848997592926025</v>
       </c>
-      <c r="AH39" t="s">
-        <v>112</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688147</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>19.99</v>
@@ -4006,7 +4690,7 @@
         <v>88443.3</v>
       </c>
       <c r="J40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K40">
         <v>16</v>
@@ -4047,8 +4731,23 @@
       <c r="W40">
         <v>2.74</v>
       </c>
+      <c r="X40">
+        <v>-0.24</v>
+      </c>
+      <c r="Y40">
+        <v>48.75</v>
+      </c>
+      <c r="Z40">
+        <v>5.77</v>
+      </c>
       <c r="AC40" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4056,22 +4755,25 @@
       <c r="AG40">
         <v>3.951325654983521</v>
       </c>
-      <c r="AH40" t="s">
-        <v>112</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688155</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>3.09</v>
@@ -4089,7 +4791,7 @@
         <v>96369.48</v>
       </c>
       <c r="J41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K41">
         <v>7</v>
@@ -4130,8 +4832,23 @@
       <c r="W41">
         <v>0.57</v>
       </c>
+      <c r="X41">
+        <v>5.55</v>
+      </c>
+      <c r="Y41">
+        <v>81.8</v>
+      </c>
+      <c r="Z41">
+        <v>9.449999999999999</v>
+      </c>
       <c r="AC41" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4139,22 +4856,25 @@
       <c r="AG41">
         <v>13.32787418365479</v>
       </c>
-      <c r="AH41" t="s">
-        <v>112</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688195</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-5.68</v>
@@ -4172,7 +4892,7 @@
         <v>161164.51</v>
       </c>
       <c r="J42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K42">
         <v>16</v>
@@ -4213,8 +4933,23 @@
       <c r="W42">
         <v>0.39</v>
       </c>
+      <c r="X42">
+        <v>1.02</v>
+      </c>
+      <c r="Y42">
+        <v>94.47</v>
+      </c>
+      <c r="Z42">
+        <v>7.97</v>
+      </c>
       <c r="AC42" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4222,22 +4957,25 @@
       <c r="AG42">
         <v>23.27989768981934</v>
       </c>
-      <c r="AH42" t="s">
-        <v>112</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688299</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-1.95</v>
@@ -4255,7 +4993,7 @@
         <v>98343.35000000001</v>
       </c>
       <c r="J43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K43">
         <v>7</v>
@@ -4296,8 +5034,23 @@
       <c r="W43">
         <v>-0.25</v>
       </c>
+      <c r="X43">
+        <v>-4.98</v>
+      </c>
+      <c r="Y43">
+        <v>24.69</v>
+      </c>
+      <c r="Z43">
+        <v>0.12</v>
+      </c>
       <c r="AC43" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4305,22 +5058,25 @@
       <c r="AG43">
         <v>1.466719388961792</v>
       </c>
-      <c r="AH43" t="s">
-        <v>112</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688390</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-1.57</v>
@@ -4338,7 +5094,7 @@
         <v>93650.35000000001</v>
       </c>
       <c r="J44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K44">
         <v>8</v>
@@ -4379,8 +5135,23 @@
       <c r="W44">
         <v>-0.26</v>
       </c>
+      <c r="X44">
+        <v>-4.08</v>
+      </c>
+      <c r="Y44">
+        <v>58.21</v>
+      </c>
+      <c r="Z44">
+        <v>1.09</v>
+      </c>
       <c r="AC44" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4388,22 +5159,25 @@
       <c r="AG44">
         <v>6.2833251953125</v>
       </c>
-      <c r="AH44" t="s">
-        <v>112</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688411</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-4.66</v>
@@ -4421,7 +5195,7 @@
         <v>124108.22</v>
       </c>
       <c r="J45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K45">
         <v>5</v>
@@ -4462,8 +5236,23 @@
       <c r="W45">
         <v>-0.27</v>
       </c>
+      <c r="X45">
+        <v>2.65</v>
+      </c>
+      <c r="Y45">
+        <v>187.68</v>
+      </c>
+      <c r="Z45">
+        <v>9.24</v>
+      </c>
       <c r="AC45" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4471,22 +5260,25 @@
       <c r="AG45">
         <v>1.306411862373352</v>
       </c>
-      <c r="AH45" t="s">
-        <v>112</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688499</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>11.2</v>
@@ -4504,7 +5296,7 @@
         <v>225635.92</v>
       </c>
       <c r="J46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -4545,8 +5337,23 @@
       <c r="W46">
         <v>0.27</v>
       </c>
+      <c r="X46">
+        <v>-0.41</v>
+      </c>
+      <c r="Y46">
+        <v>79.56</v>
+      </c>
+      <c r="Z46">
+        <v>5.43</v>
+      </c>
       <c r="AC46" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4554,22 +5361,25 @@
       <c r="AG46">
         <v>3.615422248840332</v>
       </c>
-      <c r="AH46" t="s">
-        <v>112</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688559</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>1.93</v>
@@ -4587,7 +5397,7 @@
         <v>155064.12</v>
       </c>
       <c r="J47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4628,8 +5438,23 @@
       <c r="W47">
         <v>2.15</v>
       </c>
+      <c r="X47">
+        <v>-3.11</v>
+      </c>
+      <c r="Y47">
+        <v>42.17</v>
+      </c>
+      <c r="Z47">
+        <v>0.05</v>
+      </c>
       <c r="AC47" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4637,22 +5462,25 @@
       <c r="AG47">
         <v>-19.4094409942627</v>
       </c>
-      <c r="AH47" t="s">
-        <v>112</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688598</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>16.52</v>
@@ -4670,7 +5498,7 @@
         <v>82242.59</v>
       </c>
       <c r="J48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -4711,8 +5539,23 @@
       <c r="W48">
         <v>1.77</v>
       </c>
+      <c r="X48">
+        <v>-5.27</v>
+      </c>
+      <c r="Y48">
+        <v>37.65</v>
+      </c>
+      <c r="Z48">
+        <v>-0.4</v>
+      </c>
       <c r="AC48" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4720,22 +5563,25 @@
       <c r="AG48">
         <v>1.131635069847107</v>
       </c>
-      <c r="AH48" t="s">
-        <v>112</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688717</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-1.12</v>
@@ -4753,7 +5599,7 @@
         <v>69046.33</v>
       </c>
       <c r="J49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K49">
         <v>4</v>
@@ -4794,8 +5640,23 @@
       <c r="W49">
         <v>0.06</v>
       </c>
+      <c r="X49">
+        <v>-7.73</v>
+      </c>
+      <c r="Y49">
+        <v>81.44</v>
+      </c>
+      <c r="Z49">
+        <v>-1.13</v>
+      </c>
       <c r="AC49" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4803,8 +5664,11 @@
       <c r="AG49">
         <v>7.201804637908936</v>
       </c>
-      <c r="AH49" t="s">
-        <v>112</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
